--- a/论文整理.xlsx
+++ b/论文整理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>论文</t>
   </si>
@@ -107,13 +107,34 @@
     </r>
   </si>
   <si>
+    <t>CaEGCN: Cross-Attention Fusion based Enhanced Graph Convolutional Network forClustering</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Knowledge and Data Engineering</t>
+  </si>
+  <si>
+    <t>交叉注意卷积网络增强</t>
+  </si>
+  <si>
+    <t>huogy/CaEGCN (github.com)</t>
+  </si>
+  <si>
+    <t>Rethinking Cross-Attention for Infrared and Visible Image Fusion</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2401.11675</t>
+  </si>
+  <si>
+    <t>注意机制</t>
+  </si>
+  <si>
+    <t>https://github.com/Linfeng-Tang/PSFusion</t>
+  </si>
+  <si>
     <t>红外和可见光图像的跨尺度迭代注意力对抗融合网络</t>
   </si>
   <si>
     <t>IEEE</t>
-  </si>
-  <si>
-    <t>注意机制</t>
   </si>
   <si>
     <t>Zhishe-Wang/CrossFuse (github.com)</t>
@@ -275,6 +296,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -316,14 +345,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,16 +776,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,13 +794,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,13 +821,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -818,10 +839,10 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -836,56 +857,56 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,16 +919,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,13 +1284,13 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="1" max="1" width="90.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="77.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="24.6272727272727" customWidth="1"/>
     <col min="5" max="5" width="63.1272727272727" customWidth="1"/>
@@ -1340,162 +1364,196 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:5">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>32</v>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>44</v>
+      <c r="A36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
+      <c r="A38" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>47</v>
+      <c r="A39" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
-      <c r="A40" s="7" t="s">
-        <v>49</v>
+      <c r="A40" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1511,6 +1569,8 @@
     <hyperlink ref="B38" r:id="rId4" display="Pixel-level image fusion: A survey of the state of the art - ScienceDirect" tooltip="https://www.sciencedirect.com/science/article/pii/S1566253516300458"/>
     <hyperlink ref="B39" r:id="rId5" display="基于深度学习的多焦点图像融合：调查与比较研究 |IEEE期刊和杂志 |IEEE Xplore（IEEE的Xplore）" tooltip="https://ieeexplore.ieee.org/document/9428544"/>
     <hyperlink ref="B40" r:id="rId6" display="图像融合的当前进展和未来展望：全面回顾 - ScienceDirect" tooltip="https://www.sciencedirect.com/science/article/pii/S1566253522001518"/>
+    <hyperlink ref="B12" r:id="rId7" display="https://arxiv.org/abs/2401.11675"/>
+    <hyperlink ref="E11" r:id="rId8" display="huogy/CaEGCN (github.com)" tooltip="https://github.com/huogy/CaEGCN"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
